--- a/lengths.xlsx
+++ b/lengths.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13587\Desktop\opencar\Fusion monster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13390\Desktop\new project\OpenCar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECA54E3-03EC-452B-A129-393948D67CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21182AD-C797-4549-AA19-108212F64B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2618" yWindow="653" windowWidth="16199" windowHeight="11782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -32,7 +30,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>身高</t>
   </si>
@@ -55,20 +56,28 @@
     <t>小腿</t>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>None</t>
+  </si>
+  <si>
+    <t>目测身高</t>
   </si>
   <si>
     <t>真实身高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目测身高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>目测肩宽</t>
   </si>
   <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>目测大臂长</t>
+  </si>
+  <si>
+    <t>目测小臂长</t>
+  </si>
+  <si>
+    <t>目测大腿长</t>
+  </si>
+  <si>
+    <t>目测小腿长</t>
   </si>
 </sst>
 </file>
@@ -150,12 +159,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -436,819 +444,2697 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="9.06640625" style="3"/>
-    <col min="5" max="5" width="8.1328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.1328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.796875" style="3" customWidth="1"/>
+    <col min="1" max="4" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="15" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2">
+        <v>411.00486615124157</v>
+      </c>
+      <c r="C2">
+        <v>101</v>
+      </c>
+      <c r="D2">
+        <v>112.28535078094561</v>
+      </c>
+      <c r="E2">
+        <v>57</v>
+      </c>
+      <c r="F2">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>84</v>
+      </c>
+      <c r="H2">
+        <v>78</v>
+      </c>
+      <c r="I2">
+        <v>174</v>
+      </c>
+      <c r="J2">
+        <v>47</v>
+      </c>
+      <c r="K2">
+        <v>27</v>
+      </c>
+      <c r="L2">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>41</v>
+      </c>
+      <c r="N2">
+        <v>37</v>
+      </c>
+      <c r="Q2">
+        <v>174</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2:R33" si="0">(Q2-0.9)*1.7/1.8+0.9</f>
+        <v>164.38333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3">
+        <v>411.0304125000971</v>
+      </c>
+      <c r="C3">
+        <v>95.084173236138511</v>
+      </c>
+      <c r="D3">
+        <v>107.1167587261676</v>
+      </c>
+      <c r="E3">
+        <v>61</v>
+      </c>
+      <c r="F3">
+        <v>51</v>
+      </c>
+      <c r="G3">
+        <v>91</v>
+      </c>
+      <c r="H3">
+        <v>83</v>
+      </c>
+      <c r="I3">
+        <v>184</v>
+      </c>
+      <c r="J3">
+        <v>46</v>
+      </c>
+      <c r="K3">
+        <v>26</v>
+      </c>
+      <c r="L3">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>43</v>
+      </c>
+      <c r="N3">
+        <v>38</v>
+      </c>
+      <c r="Q3">
+        <v>184</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>173.82777777777778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>451</v>
-      </c>
-      <c r="J2">
-        <v>174</v>
-      </c>
-      <c r="K2">
-        <f>(J2-0.9)*1.7/1.8+0.9</f>
-        <v>164.38333333333333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>475</v>
-      </c>
-      <c r="J3">
-        <v>184</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K52" si="0">(J3-0.9)*1.7/1.8+0.9</f>
-        <v>173.82777777777778</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>496</v>
+      <c r="B4">
+        <v>368.00543474247769</v>
+      </c>
+      <c r="C4">
+        <v>93.021502890460766</v>
+      </c>
+      <c r="D4">
+        <v>130.06152390311291</v>
+      </c>
+      <c r="E4">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>73</v>
+      </c>
+      <c r="H4">
+        <v>68</v>
+      </c>
+      <c r="I4">
+        <v>187</v>
       </c>
       <c r="J4">
+        <v>47</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>26</v>
+      </c>
+      <c r="M4">
+        <v>46</v>
+      </c>
+      <c r="N4">
+        <v>38</v>
+      </c>
+      <c r="Q4">
         <v>187</v>
       </c>
-      <c r="K4">
+      <c r="R4">
         <f t="shared" si="0"/>
         <v>176.66111111111113</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>484</v>
+      <c r="B5">
+        <v>417.17262613934781</v>
+      </c>
+      <c r="C5">
+        <v>99.02019995940222</v>
+      </c>
+      <c r="D5">
+        <v>104</v>
+      </c>
+      <c r="E5">
+        <v>62</v>
+      </c>
+      <c r="F5">
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <v>86</v>
+      </c>
+      <c r="H5">
+        <v>84</v>
+      </c>
+      <c r="I5">
+        <v>186</v>
       </c>
       <c r="J5">
+        <v>48</v>
+      </c>
+      <c r="K5">
+        <v>31</v>
+      </c>
+      <c r="L5">
+        <v>27</v>
+      </c>
+      <c r="M5">
+        <v>45</v>
+      </c>
+      <c r="N5">
+        <v>37</v>
+      </c>
+      <c r="Q5">
         <v>186</v>
       </c>
-      <c r="K5">
+      <c r="R5">
         <f t="shared" si="0"/>
         <v>175.71666666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>492</v>
+      <c r="B6">
+        <v>386.06346628501382</v>
+      </c>
+      <c r="C6">
+        <v>99.045444115315064</v>
+      </c>
+      <c r="D6">
+        <v>119.016805536025</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <v>42</v>
+      </c>
+      <c r="G6">
+        <v>79</v>
+      </c>
+      <c r="H6">
+        <v>69</v>
+      </c>
+      <c r="I6">
+        <v>188</v>
       </c>
       <c r="J6">
+        <v>47</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <v>26</v>
+      </c>
+      <c r="M6">
+        <v>42</v>
+      </c>
+      <c r="N6">
+        <v>39</v>
+      </c>
+      <c r="Q6">
         <v>188</v>
       </c>
-      <c r="K6">
+      <c r="R6">
         <f t="shared" si="0"/>
         <v>177.60555555555555</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>455</v>
+      <c r="B7">
+        <v>408.14825737714477</v>
+      </c>
+      <c r="C7">
+        <v>95.131487952202235</v>
+      </c>
+      <c r="D7">
+        <v>117.1067888723792</v>
+      </c>
+      <c r="E7">
+        <v>62</v>
+      </c>
+      <c r="F7">
+        <v>54</v>
+      </c>
+      <c r="G7">
+        <v>91</v>
+      </c>
+      <c r="H7">
+        <v>83</v>
+      </c>
+      <c r="I7">
+        <v>174</v>
       </c>
       <c r="J7">
+        <v>45</v>
+      </c>
+      <c r="K7">
+        <v>27</v>
+      </c>
+      <c r="L7">
+        <v>23</v>
+      </c>
+      <c r="M7">
+        <v>40</v>
+      </c>
+      <c r="N7">
+        <v>32</v>
+      </c>
+      <c r="Q7">
         <v>174</v>
       </c>
-      <c r="K7">
+      <c r="R7">
         <f t="shared" si="0"/>
         <v>164.38333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>427</v>
+      <c r="B8">
+        <v>440.07272126320208</v>
+      </c>
+      <c r="C8">
+        <v>107.0420478129973</v>
+      </c>
+      <c r="D8">
+        <v>114</v>
+      </c>
+      <c r="E8">
+        <v>62</v>
+      </c>
+      <c r="F8">
+        <v>52</v>
+      </c>
+      <c r="G8">
+        <v>95</v>
+      </c>
+      <c r="H8">
+        <v>81</v>
+      </c>
+      <c r="I8">
+        <v>162</v>
       </c>
       <c r="J8">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
+      <c r="L8">
+        <v>23</v>
+      </c>
+      <c r="M8">
+        <v>37</v>
+      </c>
+      <c r="N8">
+        <v>32</v>
+      </c>
+      <c r="Q8">
         <v>162</v>
       </c>
-      <c r="K8">
+      <c r="R8">
         <f t="shared" si="0"/>
         <v>153.05000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>430</v>
+      <c r="B9">
+        <v>411.00486615124157</v>
+      </c>
+      <c r="C9">
+        <v>99.02019995940222</v>
+      </c>
+      <c r="D9">
+        <v>113</v>
+      </c>
+      <c r="E9">
+        <v>62</v>
+      </c>
+      <c r="F9">
+        <v>52</v>
+      </c>
+      <c r="G9">
+        <v>77</v>
+      </c>
+      <c r="H9">
+        <v>72</v>
+      </c>
+      <c r="I9">
+        <v>164</v>
       </c>
       <c r="J9">
+        <v>42</v>
+      </c>
+      <c r="K9">
+        <v>24</v>
+      </c>
+      <c r="L9">
+        <v>22</v>
+      </c>
+      <c r="M9">
+        <v>36</v>
+      </c>
+      <c r="N9">
+        <v>34</v>
+      </c>
+      <c r="Q9">
         <v>164</v>
       </c>
-      <c r="K9">
+      <c r="R9">
         <f t="shared" si="0"/>
         <v>154.93888888888887</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>439</v>
+      <c r="B10">
+        <v>401.04488526846973</v>
+      </c>
+      <c r="C10">
+        <v>99.02019995940222</v>
+      </c>
+      <c r="D10">
+        <v>100.1249219725039</v>
+      </c>
+      <c r="E10">
+        <v>59</v>
+      </c>
+      <c r="F10">
+        <v>43</v>
+      </c>
+      <c r="G10">
+        <v>82</v>
+      </c>
+      <c r="H10">
+        <v>73</v>
+      </c>
+      <c r="I10">
+        <v>168</v>
       </c>
       <c r="J10">
+        <v>48</v>
+      </c>
+      <c r="K10">
+        <v>26</v>
+      </c>
+      <c r="L10">
+        <v>20</v>
+      </c>
+      <c r="M10">
+        <v>34</v>
+      </c>
+      <c r="N10">
+        <v>33</v>
+      </c>
+      <c r="Q10">
         <v>168</v>
       </c>
-      <c r="K10">
+      <c r="R10">
         <f t="shared" si="0"/>
         <v>158.71666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>450</v>
+      <c r="B11">
+        <v>432.09373982968089</v>
+      </c>
+      <c r="C11">
+        <v>101.079176886241</v>
+      </c>
+      <c r="D11">
+        <v>110.01818031580051</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>55</v>
+      </c>
+      <c r="G11">
+        <v>81</v>
+      </c>
+      <c r="H11">
+        <v>77</v>
+      </c>
+      <c r="I11">
+        <v>173</v>
       </c>
       <c r="J11">
+        <v>47</v>
+      </c>
+      <c r="K11">
+        <v>30</v>
+      </c>
+      <c r="L11">
+        <v>24</v>
+      </c>
+      <c r="M11">
+        <v>42</v>
+      </c>
+      <c r="N11">
+        <v>36</v>
+      </c>
+      <c r="Q11">
         <v>173</v>
       </c>
-      <c r="K11">
+      <c r="R11">
         <f t="shared" si="0"/>
         <v>163.4388888888889</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>425</v>
+      <c r="B12">
+        <v>413.01089574005192</v>
+      </c>
+      <c r="C12">
+        <v>111.0405331399305</v>
+      </c>
+      <c r="D12">
+        <v>105.01904589168581</v>
+      </c>
+      <c r="E12">
+        <v>60</v>
+      </c>
+      <c r="F12">
+        <v>55</v>
+      </c>
+      <c r="G12">
+        <v>90</v>
+      </c>
+      <c r="H12">
+        <v>83</v>
+      </c>
+      <c r="I12">
+        <v>161</v>
       </c>
       <c r="J12">
+        <v>42</v>
+      </c>
+      <c r="K12">
+        <v>27</v>
+      </c>
+      <c r="L12">
+        <v>23</v>
+      </c>
+      <c r="M12">
+        <v>34</v>
+      </c>
+      <c r="N12">
+        <v>32</v>
+      </c>
+      <c r="Q12">
         <v>161</v>
       </c>
-      <c r="K12">
+      <c r="R12">
         <f t="shared" si="0"/>
         <v>152.10555555555553</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>465</v>
+      <c r="B13">
+        <v>408.06004460128167</v>
+      </c>
+      <c r="C13">
+        <v>102</v>
+      </c>
+      <c r="D13">
+        <v>124</v>
+      </c>
+      <c r="E13">
+        <v>59</v>
+      </c>
+      <c r="F13">
+        <v>46</v>
+      </c>
+      <c r="G13">
+        <v>90</v>
+      </c>
+      <c r="H13">
+        <v>87</v>
+      </c>
+      <c r="I13">
+        <v>179</v>
       </c>
       <c r="J13">
+        <v>48</v>
+      </c>
+      <c r="K13">
+        <v>28</v>
+      </c>
+      <c r="L13">
+        <v>27</v>
+      </c>
+      <c r="M13">
+        <v>38</v>
+      </c>
+      <c r="N13">
+        <v>36</v>
+      </c>
+      <c r="Q13">
         <v>179</v>
       </c>
-      <c r="K13">
+      <c r="R13">
         <f t="shared" si="0"/>
         <v>169.10555555555555</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <v>428</v>
+      <c r="B14">
+        <v>437.11440150148343</v>
+      </c>
+      <c r="C14">
+        <v>102.0441081101697</v>
+      </c>
+      <c r="D14">
+        <v>126</v>
+      </c>
+      <c r="E14">
+        <v>68</v>
+      </c>
+      <c r="F14">
+        <v>56</v>
+      </c>
+      <c r="G14">
+        <v>91</v>
+      </c>
+      <c r="H14">
+        <v>87</v>
+      </c>
+      <c r="I14">
+        <v>163</v>
       </c>
       <c r="J14">
+        <v>40</v>
+      </c>
+      <c r="K14">
+        <v>30</v>
+      </c>
+      <c r="L14">
+        <v>25</v>
+      </c>
+      <c r="M14">
+        <v>38</v>
+      </c>
+      <c r="N14">
+        <v>32</v>
+      </c>
+      <c r="Q14">
         <v>163</v>
       </c>
-      <c r="K14">
+      <c r="R14">
         <f t="shared" si="0"/>
         <v>153.99444444444444</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <v>458</v>
+      <c r="B15">
+        <v>431.05684079944717</v>
+      </c>
+      <c r="C15">
+        <v>106.0188662455886</v>
+      </c>
+      <c r="D15">
+        <v>118.01694793545541</v>
+      </c>
+      <c r="E15">
+        <v>64</v>
+      </c>
+      <c r="F15">
+        <v>47</v>
+      </c>
+      <c r="G15">
+        <v>90</v>
+      </c>
+      <c r="H15">
+        <v>77</v>
+      </c>
+      <c r="I15">
+        <v>177</v>
       </c>
       <c r="J15">
+        <v>44</v>
+      </c>
+      <c r="K15">
+        <v>28</v>
+      </c>
+      <c r="L15">
+        <v>27</v>
+      </c>
+      <c r="M15">
+        <v>44</v>
+      </c>
+      <c r="N15">
+        <v>35</v>
+      </c>
+      <c r="Q15">
         <v>177</v>
       </c>
-      <c r="K15">
+      <c r="R15">
         <f t="shared" si="0"/>
         <v>167.21666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
-        <v>477</v>
+      <c r="B16">
+        <v>451.07094785632108</v>
+      </c>
+      <c r="C16">
+        <v>115.0173899895142</v>
+      </c>
+      <c r="D16">
+        <v>124.01612798342001</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>60</v>
+      </c>
+      <c r="G16">
+        <v>97</v>
+      </c>
+      <c r="H16">
+        <v>84</v>
+      </c>
+      <c r="I16">
+        <v>185</v>
       </c>
       <c r="J16">
+        <v>47</v>
+      </c>
+      <c r="K16">
+        <v>30</v>
+      </c>
+      <c r="L16">
+        <v>26</v>
+      </c>
+      <c r="M16">
+        <v>45</v>
+      </c>
+      <c r="N16">
+        <v>35</v>
+      </c>
+      <c r="Q16">
         <v>185</v>
       </c>
-      <c r="K16">
+      <c r="R16">
         <f t="shared" si="0"/>
         <v>174.77222222222221</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
-        <v>443</v>
+      <c r="B17">
+        <v>384.25512358327768</v>
+      </c>
+      <c r="C17">
+        <v>88.090862182180956</v>
+      </c>
+      <c r="D17">
+        <v>105.01904589168581</v>
+      </c>
+      <c r="E17">
+        <v>56</v>
+      </c>
+      <c r="F17">
+        <v>49</v>
+      </c>
+      <c r="G17">
+        <v>77</v>
+      </c>
+      <c r="H17">
+        <v>70</v>
+      </c>
+      <c r="I17">
+        <v>170</v>
       </c>
       <c r="J17">
+        <v>46</v>
+      </c>
+      <c r="K17">
+        <v>29</v>
+      </c>
+      <c r="L17">
+        <v>25</v>
+      </c>
+      <c r="M17">
+        <v>37</v>
+      </c>
+      <c r="N17">
+        <v>32</v>
+      </c>
+      <c r="Q17">
         <v>170</v>
       </c>
-      <c r="K17">
+      <c r="R17">
         <f t="shared" si="0"/>
         <v>160.60555555555555</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
-        <v>447</v>
+      <c r="B18">
+        <v>387.03229839381618</v>
+      </c>
+      <c r="C18">
+        <v>90.199778270237445</v>
+      </c>
+      <c r="D18">
+        <v>121.03718436910211</v>
+      </c>
+      <c r="E18">
+        <v>55</v>
+      </c>
+      <c r="F18">
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <v>84</v>
+      </c>
+      <c r="H18">
+        <v>75</v>
+      </c>
+      <c r="I18">
+        <v>172</v>
       </c>
       <c r="J18">
+        <v>46</v>
+      </c>
+      <c r="K18">
+        <v>27</v>
+      </c>
+      <c r="L18">
+        <v>20</v>
+      </c>
+      <c r="M18">
+        <v>38</v>
+      </c>
+      <c r="N18">
+        <v>32</v>
+      </c>
+      <c r="Q18">
         <v>172</v>
       </c>
-      <c r="K18">
+      <c r="R18">
         <f t="shared" si="0"/>
         <v>162.49444444444444</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
-        <v>472</v>
+      <c r="B19">
+        <v>400.07999200159958</v>
+      </c>
+      <c r="C19">
+        <v>95.131487952202235</v>
+      </c>
+      <c r="D19">
+        <v>103.01941564578981</v>
+      </c>
+      <c r="E19">
+        <v>61</v>
+      </c>
+      <c r="F19">
+        <v>53</v>
+      </c>
+      <c r="G19">
+        <v>87</v>
+      </c>
+      <c r="H19">
+        <v>80</v>
+      </c>
+      <c r="I19">
+        <v>183</v>
       </c>
       <c r="J19">
+        <v>47</v>
+      </c>
+      <c r="K19">
+        <v>28</v>
+      </c>
+      <c r="L19">
+        <v>26</v>
+      </c>
+      <c r="M19">
+        <v>38</v>
+      </c>
+      <c r="N19">
+        <v>34</v>
+      </c>
+      <c r="Q19">
         <v>183</v>
       </c>
-      <c r="K19">
+      <c r="R19">
         <f t="shared" si="0"/>
         <v>172.88333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" s="3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
-        <v>460</v>
+      <c r="B20">
+        <v>406.20807475972208</v>
+      </c>
+      <c r="C20">
+        <v>97.514101544340761</v>
+      </c>
+      <c r="D20">
+        <v>99.40824915468535</v>
+      </c>
+      <c r="E20">
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <v>47</v>
+      </c>
+      <c r="G20">
+        <v>85</v>
+      </c>
+      <c r="H20">
+        <v>74</v>
+      </c>
+      <c r="I20">
+        <v>177</v>
       </c>
       <c r="J20">
+        <v>52</v>
+      </c>
+      <c r="K20">
+        <v>28</v>
+      </c>
+      <c r="L20">
+        <v>28</v>
+      </c>
+      <c r="M20">
+        <v>42</v>
+      </c>
+      <c r="N20">
+        <v>37</v>
+      </c>
+      <c r="Q20">
         <v>177</v>
       </c>
-      <c r="K20">
+      <c r="R20">
         <f t="shared" si="0"/>
         <v>167.21666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
-        <v>483</v>
+      <c r="B21">
+        <v>418.01076541161001</v>
+      </c>
+      <c r="C21">
+        <v>116</v>
+      </c>
+      <c r="D21">
+        <v>146.01369798755181</v>
+      </c>
+      <c r="E21">
+        <v>66</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>89</v>
+      </c>
+      <c r="H21">
+        <v>76</v>
+      </c>
+      <c r="I21">
+        <v>187</v>
       </c>
       <c r="J21">
+        <v>46</v>
+      </c>
+      <c r="K21">
+        <v>32</v>
+      </c>
+      <c r="L21">
+        <v>26</v>
+      </c>
+      <c r="M21">
+        <v>45</v>
+      </c>
+      <c r="N21">
+        <v>37</v>
+      </c>
+      <c r="Q21">
         <v>187</v>
       </c>
-      <c r="K21">
+      <c r="R21">
         <f t="shared" si="0"/>
         <v>176.66111111111113</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" s="3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
-        <v>485</v>
+      <c r="B22">
+        <v>429.05710575633168</v>
+      </c>
+      <c r="C22">
+        <v>116.0689450283753</v>
+      </c>
+      <c r="D22">
+        <v>129.01550294441361</v>
+      </c>
+      <c r="E22">
+        <v>69</v>
+      </c>
+      <c r="F22">
+        <v>58</v>
+      </c>
+      <c r="G22">
+        <v>95</v>
+      </c>
+      <c r="H22">
+        <v>82</v>
+      </c>
+      <c r="I22">
+        <v>187</v>
       </c>
       <c r="J22">
+        <v>46</v>
+      </c>
+      <c r="K22">
+        <v>30</v>
+      </c>
+      <c r="L22">
+        <v>24</v>
+      </c>
+      <c r="M22">
+        <v>39</v>
+      </c>
+      <c r="N22">
+        <v>35</v>
+      </c>
+      <c r="Q22">
         <v>187</v>
       </c>
-      <c r="K22">
+      <c r="R22">
         <f t="shared" si="0"/>
         <v>176.66111111111113</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" s="3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
-        <v>415</v>
+      <c r="B23">
+        <v>445.18984714388978</v>
+      </c>
+      <c r="C23">
+        <v>122.065556157337</v>
+      </c>
+      <c r="D23">
+        <v>124.01612798342001</v>
+      </c>
+      <c r="E23">
+        <v>69</v>
+      </c>
+      <c r="F23">
+        <v>56</v>
+      </c>
+      <c r="G23">
+        <v>96</v>
+      </c>
+      <c r="H23">
+        <v>91</v>
+      </c>
+      <c r="I23">
+        <v>192</v>
       </c>
       <c r="J23">
+        <v>51</v>
+      </c>
+      <c r="K23">
+        <v>30</v>
+      </c>
+      <c r="L23">
+        <v>28</v>
+      </c>
+      <c r="M23">
+        <v>47</v>
+      </c>
+      <c r="N23">
+        <v>39</v>
+      </c>
+      <c r="Q23">
         <v>192</v>
       </c>
-      <c r="K23">
+      <c r="R23">
         <f t="shared" si="0"/>
         <v>181.38333333333333</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24" s="3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
-        <v>426</v>
+      <c r="B24">
+        <v>449</v>
+      </c>
+      <c r="C24">
+        <v>106</v>
+      </c>
+      <c r="D24">
+        <v>111.01801655587261</v>
+      </c>
+      <c r="E24">
+        <v>68</v>
+      </c>
+      <c r="F24">
+        <v>54</v>
+      </c>
+      <c r="G24">
+        <v>95</v>
+      </c>
+      <c r="H24">
+        <v>87</v>
+      </c>
+      <c r="I24">
+        <v>162</v>
       </c>
       <c r="J24">
+        <v>40</v>
+      </c>
+      <c r="K24">
+        <v>28</v>
+      </c>
+      <c r="L24">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>36</v>
+      </c>
+      <c r="N24">
+        <v>32</v>
+      </c>
+      <c r="Q24">
         <v>162</v>
       </c>
-      <c r="K24">
+      <c r="R24">
         <f t="shared" si="0"/>
         <v>153.05000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
-        <v>431</v>
+      <c r="B25">
+        <v>379.18992602652298</v>
+      </c>
+      <c r="C25">
+        <v>100.01999800039989</v>
+      </c>
+      <c r="D25">
+        <v>108</v>
+      </c>
+      <c r="E25">
+        <v>58</v>
+      </c>
+      <c r="F25">
+        <v>52</v>
+      </c>
+      <c r="G25">
+        <v>82</v>
+      </c>
+      <c r="H25">
+        <v>72</v>
+      </c>
+      <c r="I25">
+        <v>164</v>
       </c>
       <c r="J25">
+        <v>42</v>
+      </c>
+      <c r="K25">
+        <v>29</v>
+      </c>
+      <c r="L25">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>43</v>
+      </c>
+      <c r="N25">
+        <v>34</v>
+      </c>
+      <c r="Q25">
         <v>164</v>
       </c>
-      <c r="K25">
+      <c r="R25">
         <f t="shared" si="0"/>
         <v>154.93888888888887</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26" s="3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
-        <v>439</v>
+      <c r="B26">
+        <v>415.04337122763451</v>
+      </c>
+      <c r="C26">
+        <v>105.07616285342741</v>
+      </c>
+      <c r="D26">
+        <v>112.0178557195236</v>
+      </c>
+      <c r="E26">
+        <v>62</v>
+      </c>
+      <c r="F26">
+        <v>46</v>
+      </c>
+      <c r="G26">
+        <v>84</v>
+      </c>
+      <c r="H26">
+        <v>78</v>
+      </c>
+      <c r="I26">
+        <v>167</v>
       </c>
       <c r="J26">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>29</v>
+      </c>
+      <c r="L26">
+        <v>26</v>
+      </c>
+      <c r="M26">
+        <v>40</v>
+      </c>
+      <c r="N26">
+        <v>36</v>
+      </c>
+      <c r="Q26">
         <v>167</v>
       </c>
-      <c r="K26">
+      <c r="R26">
         <f t="shared" si="0"/>
         <v>157.77222222222224</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A27" s="3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
-        <v>446</v>
+      <c r="B27">
+        <v>420.01904718714837</v>
+      </c>
+      <c r="C27">
+        <v>102.0196059588548</v>
+      </c>
+      <c r="D27">
+        <v>100.01999800039989</v>
+      </c>
+      <c r="E27">
+        <v>60</v>
+      </c>
+      <c r="F27">
+        <v>55</v>
+      </c>
+      <c r="G27">
+        <v>84</v>
+      </c>
+      <c r="H27">
+        <v>81</v>
+      </c>
+      <c r="I27">
+        <v>173</v>
       </c>
       <c r="J27">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>30</v>
+      </c>
+      <c r="L27">
+        <v>24</v>
+      </c>
+      <c r="M27">
+        <v>40</v>
+      </c>
+      <c r="N27">
+        <v>35</v>
+      </c>
+      <c r="Q27">
         <v>173</v>
       </c>
-      <c r="K27">
+      <c r="R27">
         <f t="shared" si="0"/>
         <v>163.4388888888889</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28" s="3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
-        <v>451</v>
+      <c r="B28">
+        <v>439.16397848639627</v>
+      </c>
+      <c r="C28">
+        <v>111.0720486891279</v>
+      </c>
+      <c r="D28">
+        <v>112</v>
+      </c>
+      <c r="E28">
+        <v>59</v>
+      </c>
+      <c r="F28">
+        <v>53</v>
+      </c>
+      <c r="G28">
+        <v>101</v>
+      </c>
+      <c r="H28">
+        <v>85</v>
+      </c>
+      <c r="I28">
+        <v>175</v>
       </c>
       <c r="J28">
+        <v>54</v>
+      </c>
+      <c r="K28">
+        <v>30</v>
+      </c>
+      <c r="L28">
+        <v>24</v>
+      </c>
+      <c r="M28">
+        <v>42</v>
+      </c>
+      <c r="N28">
+        <v>32</v>
+      </c>
+      <c r="Q28">
         <v>175</v>
       </c>
-      <c r="K28">
+      <c r="R28">
         <f t="shared" si="0"/>
         <v>165.32777777777775</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A29" s="3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
-        <v>487</v>
+      <c r="B29">
+        <v>443.07222887470618</v>
+      </c>
+      <c r="C29">
+        <v>111</v>
+      </c>
+      <c r="D29">
+        <v>112</v>
+      </c>
+      <c r="E29">
+        <v>65</v>
+      </c>
+      <c r="F29">
+        <v>52</v>
+      </c>
+      <c r="G29">
+        <v>91</v>
+      </c>
+      <c r="H29">
+        <v>85</v>
+      </c>
+      <c r="I29">
+        <v>192</v>
       </c>
       <c r="J29">
+        <v>53</v>
+      </c>
+      <c r="K29">
+        <v>32</v>
+      </c>
+      <c r="L29">
+        <v>28</v>
+      </c>
+      <c r="M29">
+        <v>44</v>
+      </c>
+      <c r="N29">
+        <v>37</v>
+      </c>
+      <c r="Q29">
         <v>192</v>
       </c>
-      <c r="K29">
+      <c r="R29">
         <f t="shared" si="0"/>
         <v>181.38333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A30" s="3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
-        <v>498</v>
+      <c r="B30">
+        <v>406.00492607848992</v>
+      </c>
+      <c r="C30">
+        <v>116.1077086157504</v>
+      </c>
+      <c r="D30">
+        <v>115.1086443322134</v>
+      </c>
+      <c r="E30">
+        <v>55</v>
+      </c>
+      <c r="F30">
+        <v>36</v>
+      </c>
+      <c r="G30">
+        <v>84</v>
+      </c>
+      <c r="H30">
+        <v>79</v>
+      </c>
+      <c r="I30">
+        <v>195</v>
       </c>
       <c r="J30">
+        <v>56</v>
+      </c>
+      <c r="K30">
+        <v>32</v>
+      </c>
+      <c r="L30">
+        <v>27</v>
+      </c>
+      <c r="M30">
+        <v>44</v>
+      </c>
+      <c r="N30">
+        <v>40</v>
+      </c>
+      <c r="Q30">
         <v>195</v>
       </c>
-      <c r="K30">
+      <c r="R30">
         <f t="shared" si="0"/>
         <v>184.21666666666664</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31" s="3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
-        <v>436</v>
+      <c r="B31">
+        <v>465.00967731865541</v>
+      </c>
+      <c r="C31">
+        <v>103.04368005850721</v>
+      </c>
+      <c r="D31">
+        <v>109.1146186356347</v>
+      </c>
+      <c r="E31">
+        <v>66</v>
+      </c>
+      <c r="F31">
+        <v>57</v>
+      </c>
+      <c r="G31">
+        <v>98</v>
+      </c>
+      <c r="H31">
+        <v>92</v>
+      </c>
+      <c r="I31">
+        <v>166</v>
       </c>
       <c r="J31">
+        <v>46</v>
+      </c>
+      <c r="K31">
+        <v>27</v>
+      </c>
+      <c r="L31">
+        <v>25</v>
+      </c>
+      <c r="M31">
+        <v>37</v>
+      </c>
+      <c r="N31">
+        <v>33</v>
+      </c>
+      <c r="Q31">
         <v>166</v>
       </c>
-      <c r="K31">
+      <c r="R31">
         <f t="shared" si="0"/>
         <v>156.82777777777775</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A32" s="3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
-        <v>454</v>
+      <c r="B32">
+        <v>469.00959478458441</v>
+      </c>
+      <c r="C32">
+        <v>128.0156240464421</v>
+      </c>
+      <c r="D32">
+        <v>139</v>
+      </c>
+      <c r="E32">
+        <v>68</v>
+      </c>
+      <c r="F32">
+        <v>61</v>
+      </c>
+      <c r="G32">
+        <v>95</v>
+      </c>
+      <c r="H32">
+        <v>90</v>
+      </c>
+      <c r="I32">
+        <v>176</v>
       </c>
       <c r="J32">
+        <v>43</v>
+      </c>
+      <c r="K32">
+        <v>29</v>
+      </c>
+      <c r="L32">
+        <v>23</v>
+      </c>
+      <c r="M32">
+        <v>39</v>
+      </c>
+      <c r="N32">
+        <v>35</v>
+      </c>
+      <c r="Q32">
         <v>176</v>
       </c>
-      <c r="K32">
+      <c r="R32">
         <f t="shared" si="0"/>
         <v>166.27222222222221</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" s="3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
-        <v>465</v>
+      <c r="B33">
+        <v>396.15274831812042</v>
+      </c>
+      <c r="C33">
+        <v>97.082439194738001</v>
+      </c>
+      <c r="D33">
+        <v>128</v>
+      </c>
+      <c r="E33">
+        <v>59</v>
+      </c>
+      <c r="F33">
+        <v>55</v>
+      </c>
+      <c r="G33">
+        <v>87</v>
+      </c>
+      <c r="H33">
+        <v>82</v>
+      </c>
+      <c r="I33">
+        <v>182</v>
       </c>
       <c r="J33">
+        <v>47</v>
+      </c>
+      <c r="K33">
+        <v>28</v>
+      </c>
+      <c r="L33">
+        <v>26</v>
+      </c>
+      <c r="M33">
+        <v>39</v>
+      </c>
+      <c r="N33">
+        <v>35</v>
+      </c>
+      <c r="Q33">
         <v>182</v>
       </c>
-      <c r="K33">
+      <c r="R33">
         <f t="shared" si="0"/>
         <v>171.9388888888889</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A34" s="3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
-        <v>478</v>
+      <c r="B34">
+        <v>424.05777908204908</v>
+      </c>
+      <c r="C34">
+        <v>97.04638066409278</v>
+      </c>
+      <c r="D34">
+        <v>130</v>
+      </c>
+      <c r="E34">
+        <v>60</v>
+      </c>
+      <c r="F34">
+        <v>53</v>
+      </c>
+      <c r="G34">
+        <v>91</v>
+      </c>
+      <c r="H34">
+        <v>85</v>
+      </c>
+      <c r="I34">
+        <v>184</v>
       </c>
       <c r="J34">
+        <v>48</v>
+      </c>
+      <c r="K34">
+        <v>28</v>
+      </c>
+      <c r="L34">
+        <v>26</v>
+      </c>
+      <c r="M34">
+        <v>47</v>
+      </c>
+      <c r="N34">
+        <v>37</v>
+      </c>
+      <c r="Q34">
         <v>184</v>
       </c>
-      <c r="K34">
-        <f t="shared" si="0"/>
+      <c r="R34">
+        <f t="shared" ref="R34:R65" si="1">(Q34-0.9)*1.7/1.8+0.9</f>
         <v>173.82777777777778</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" s="3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
-        <v>482</v>
+      <c r="B35">
+        <v>403.07939664537548</v>
+      </c>
+      <c r="C35">
+        <v>110.0409014866745</v>
+      </c>
+      <c r="D35">
+        <v>117</v>
+      </c>
+      <c r="E35">
+        <v>71</v>
+      </c>
+      <c r="F35">
+        <v>57</v>
+      </c>
+      <c r="G35">
+        <v>94</v>
+      </c>
+      <c r="H35">
+        <v>87</v>
+      </c>
+      <c r="I35">
+        <v>185</v>
       </c>
       <c r="J35">
+        <v>44</v>
+      </c>
+      <c r="K35">
+        <v>31</v>
+      </c>
+      <c r="L35">
+        <v>25</v>
+      </c>
+      <c r="M35">
+        <v>42</v>
+      </c>
+      <c r="N35">
+        <v>38</v>
+      </c>
+      <c r="Q35">
         <v>185</v>
       </c>
-      <c r="K35">
-        <f t="shared" si="0"/>
+      <c r="R35">
+        <f t="shared" si="1"/>
         <v>174.77222222222221</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A36" s="3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
-        <v>453</v>
+      <c r="B36">
+        <v>408.27564218307219</v>
+      </c>
+      <c r="C36">
+        <v>102.1224754889931</v>
+      </c>
+      <c r="D36">
+        <v>111.01801655587261</v>
+      </c>
+      <c r="E36">
+        <v>57</v>
+      </c>
+      <c r="F36">
+        <v>46</v>
+      </c>
+      <c r="G36">
+        <v>85</v>
+      </c>
+      <c r="H36">
+        <v>83</v>
+      </c>
+      <c r="I36">
+        <v>175</v>
       </c>
       <c r="J36">
+        <v>46</v>
+      </c>
+      <c r="K36">
+        <v>26</v>
+      </c>
+      <c r="L36">
+        <v>24</v>
+      </c>
+      <c r="M36">
+        <v>40</v>
+      </c>
+      <c r="N36">
+        <v>35</v>
+      </c>
+      <c r="Q36">
         <v>175</v>
       </c>
-      <c r="K36">
-        <f t="shared" si="0"/>
+      <c r="R36">
+        <f t="shared" si="1"/>
         <v>165.32777777777775</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A37" s="3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
-        <v>500</v>
+      <c r="B37">
+        <v>407.0196555450363</v>
+      </c>
+      <c r="C37">
+        <v>94.047860156411858</v>
+      </c>
+      <c r="D37">
+        <v>135.01481400201979</v>
+      </c>
+      <c r="E37">
+        <v>65</v>
+      </c>
+      <c r="F37">
+        <v>54</v>
+      </c>
+      <c r="G37">
+        <v>89</v>
+      </c>
+      <c r="H37">
+        <v>84</v>
+      </c>
+      <c r="I37">
+        <v>192</v>
       </c>
       <c r="J37">
+        <v>40</v>
+      </c>
+      <c r="K37">
+        <v>31</v>
+      </c>
+      <c r="L37">
+        <v>28</v>
+      </c>
+      <c r="M37">
+        <v>46</v>
+      </c>
+      <c r="N37">
+        <v>40</v>
+      </c>
+      <c r="Q37">
         <v>192</v>
       </c>
-      <c r="K37">
-        <f t="shared" si="0"/>
+      <c r="R37">
+        <f t="shared" si="1"/>
         <v>181.38333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" s="3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
-        <v>503</v>
+      <c r="B38">
+        <v>413</v>
+      </c>
+      <c r="C38">
+        <v>93.021502890460766</v>
+      </c>
+      <c r="D38">
+        <v>124.2577965360725</v>
+      </c>
+      <c r="E38">
+        <v>60</v>
+      </c>
+      <c r="F38">
+        <v>55</v>
+      </c>
+      <c r="G38">
+        <v>87</v>
+      </c>
+      <c r="H38">
+        <v>80</v>
+      </c>
+      <c r="I38">
+        <v>197</v>
       </c>
       <c r="J38">
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <v>30</v>
+      </c>
+      <c r="L38">
+        <v>29</v>
+      </c>
+      <c r="M38">
+        <v>42</v>
+      </c>
+      <c r="N38">
+        <v>42</v>
+      </c>
+      <c r="Q38">
         <v>197</v>
       </c>
-      <c r="K38">
-        <f t="shared" si="0"/>
+      <c r="R38">
+        <f t="shared" si="1"/>
         <v>186.10555555555555</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39" s="3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
-        <v>462</v>
+      <c r="B39">
+        <v>403.10048375064002</v>
+      </c>
+      <c r="C39">
+        <v>116.0689450283753</v>
+      </c>
+      <c r="D39">
+        <v>136</v>
+      </c>
+      <c r="E39">
+        <v>67</v>
+      </c>
+      <c r="F39">
+        <v>57</v>
+      </c>
+      <c r="G39">
+        <v>93</v>
+      </c>
+      <c r="H39">
+        <v>87</v>
+      </c>
+      <c r="I39">
+        <v>178</v>
       </c>
       <c r="J39">
+        <v>44</v>
+      </c>
+      <c r="K39">
+        <v>27</v>
+      </c>
+      <c r="L39">
+        <v>26</v>
+      </c>
+      <c r="M39">
+        <v>40</v>
+      </c>
+      <c r="N39">
+        <v>37</v>
+      </c>
+      <c r="Q39">
         <v>178</v>
       </c>
-      <c r="K39">
-        <f t="shared" si="0"/>
+      <c r="R39">
+        <f t="shared" si="1"/>
         <v>168.1611111111111</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A40" s="3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="3">
-        <v>472</v>
+      <c r="B40">
+        <v>442.04072210600691</v>
+      </c>
+      <c r="C40">
+        <v>101</v>
+      </c>
+      <c r="D40">
+        <v>98.020406038742763</v>
+      </c>
+      <c r="E40">
+        <v>66</v>
+      </c>
+      <c r="F40">
+        <v>57</v>
+      </c>
+      <c r="G40">
+        <v>93</v>
+      </c>
+      <c r="H40">
+        <v>82</v>
+      </c>
+      <c r="I40">
+        <v>183</v>
       </c>
       <c r="J40">
+        <v>43</v>
+      </c>
+      <c r="K40">
+        <v>27</v>
+      </c>
+      <c r="L40">
+        <v>27</v>
+      </c>
+      <c r="M40">
+        <v>42</v>
+      </c>
+      <c r="N40">
+        <v>38</v>
+      </c>
+      <c r="Q40">
         <v>183</v>
       </c>
-      <c r="K40">
-        <f t="shared" si="0"/>
+      <c r="R40">
+        <f t="shared" si="1"/>
         <v>172.88333333333333</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41" s="3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="3">
-        <v>459</v>
+      <c r="B41">
+        <v>433.01039248498421</v>
+      </c>
+      <c r="C41">
+        <v>114.0175425099138</v>
+      </c>
+      <c r="D41">
+        <v>125.015998976131</v>
+      </c>
+      <c r="E41">
+        <v>63</v>
+      </c>
+      <c r="F41">
+        <v>52</v>
+      </c>
+      <c r="G41">
+        <v>96</v>
+      </c>
+      <c r="H41">
+        <v>86</v>
+      </c>
+      <c r="I41">
+        <v>177</v>
       </c>
       <c r="J41">
+        <v>44</v>
+      </c>
+      <c r="K41">
+        <v>27</v>
+      </c>
+      <c r="L41">
+        <v>24</v>
+      </c>
+      <c r="M41">
+        <v>40</v>
+      </c>
+      <c r="N41">
+        <v>37</v>
+      </c>
+      <c r="Q41">
         <v>177</v>
       </c>
-      <c r="K41">
-        <f t="shared" si="0"/>
+      <c r="R41">
+        <f t="shared" si="1"/>
         <v>167.21666666666667</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A42" s="3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="3">
-        <v>458</v>
+      <c r="B42">
+        <v>434.02880088768302</v>
+      </c>
+      <c r="C42">
+        <v>109.01834707974621</v>
+      </c>
+      <c r="D42">
+        <v>121</v>
+      </c>
+      <c r="E42">
+        <v>60</v>
+      </c>
+      <c r="F42">
+        <v>55</v>
+      </c>
+      <c r="G42">
+        <v>87</v>
+      </c>
+      <c r="H42">
+        <v>86</v>
+      </c>
+      <c r="I42">
+        <v>178</v>
       </c>
       <c r="J42">
+        <v>44</v>
+      </c>
+      <c r="K42">
+        <v>30</v>
+      </c>
+      <c r="L42">
+        <v>26</v>
+      </c>
+      <c r="M42">
+        <v>41</v>
+      </c>
+      <c r="N42">
+        <v>36</v>
+      </c>
+      <c r="Q42">
         <v>178</v>
       </c>
-      <c r="K42">
-        <f t="shared" si="0"/>
+      <c r="R42">
+        <f t="shared" si="1"/>
         <v>168.1611111111111</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A43" s="3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="3">
-        <v>468</v>
+      <c r="B43">
+        <v>438.05593250177537</v>
+      </c>
+      <c r="C43">
+        <v>98</v>
+      </c>
+      <c r="D43">
+        <v>124</v>
+      </c>
+      <c r="E43">
+        <v>62</v>
+      </c>
+      <c r="F43">
+        <v>54</v>
+      </c>
+      <c r="G43">
+        <v>97</v>
+      </c>
+      <c r="H43">
+        <v>84</v>
+      </c>
+      <c r="I43">
+        <v>182</v>
       </c>
       <c r="J43">
+        <v>44</v>
+      </c>
+      <c r="K43">
+        <v>26</v>
+      </c>
+      <c r="L43">
+        <v>26</v>
+      </c>
+      <c r="M43">
+        <v>41</v>
+      </c>
+      <c r="N43">
+        <v>36</v>
+      </c>
+      <c r="Q43">
         <v>182</v>
       </c>
-      <c r="K43">
-        <f t="shared" si="0"/>
+      <c r="R43">
+        <f t="shared" si="1"/>
         <v>171.9388888888889</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A44" s="3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="3">
-        <v>481</v>
+      <c r="B44">
+        <v>456.03947197583682</v>
+      </c>
+      <c r="C44">
+        <v>109.01834707974621</v>
+      </c>
+      <c r="D44">
+        <v>106.0188662455886</v>
+      </c>
+      <c r="E44">
+        <v>73</v>
+      </c>
+      <c r="F44">
+        <v>61</v>
+      </c>
+      <c r="G44">
+        <v>95</v>
+      </c>
+      <c r="H44">
+        <v>89</v>
+      </c>
+      <c r="I44">
+        <v>188</v>
       </c>
       <c r="J44">
+        <v>48</v>
+      </c>
+      <c r="K44">
+        <v>32</v>
+      </c>
+      <c r="L44">
+        <v>27</v>
+      </c>
+      <c r="M44">
+        <v>43</v>
+      </c>
+      <c r="N44">
+        <v>39</v>
+      </c>
+      <c r="Q44">
         <v>188</v>
       </c>
-      <c r="K44">
-        <f t="shared" si="0"/>
+      <c r="R44">
+        <f t="shared" si="1"/>
         <v>177.60555555555555</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A45" s="3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="3">
-        <v>485</v>
+      <c r="B45">
+        <v>395.0455669919611</v>
+      </c>
+      <c r="C45">
+        <v>100.1249219725039</v>
+      </c>
+      <c r="D45">
+        <v>105</v>
+      </c>
+      <c r="E45">
+        <v>60</v>
+      </c>
+      <c r="F45">
+        <v>54</v>
+      </c>
+      <c r="G45">
+        <v>92</v>
+      </c>
+      <c r="H45">
+        <v>80</v>
+      </c>
+      <c r="I45">
+        <v>190</v>
       </c>
       <c r="J45">
+        <v>44</v>
+      </c>
+      <c r="K45">
+        <v>32</v>
+      </c>
+      <c r="L45">
+        <v>28</v>
+      </c>
+      <c r="M45">
+        <v>43</v>
+      </c>
+      <c r="N45">
+        <v>36</v>
+      </c>
+      <c r="Q45">
         <v>190</v>
       </c>
-      <c r="K45">
-        <f t="shared" si="0"/>
+      <c r="R45">
+        <f t="shared" si="1"/>
         <v>179.49444444444444</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A46" s="3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="3">
-        <v>479</v>
+      <c r="B46">
+        <v>444.4063455892591</v>
+      </c>
+      <c r="C46">
+        <v>108.04165863221461</v>
+      </c>
+      <c r="D46">
+        <v>130.034610777285</v>
+      </c>
+      <c r="E46">
+        <v>66</v>
+      </c>
+      <c r="F46">
+        <v>54</v>
+      </c>
+      <c r="G46">
+        <v>93</v>
+      </c>
+      <c r="H46">
+        <v>87</v>
+      </c>
+      <c r="I46">
+        <v>188</v>
       </c>
       <c r="J46">
+        <v>47</v>
+      </c>
+      <c r="K46">
+        <v>30</v>
+      </c>
+      <c r="L46">
+        <v>25</v>
+      </c>
+      <c r="M46">
+        <v>44</v>
+      </c>
+      <c r="N46">
+        <v>37</v>
+      </c>
+      <c r="Q46">
         <v>188</v>
       </c>
-      <c r="K46">
-        <f t="shared" si="0"/>
+      <c r="R46">
+        <f t="shared" si="1"/>
         <v>177.60555555555555</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A47" s="3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="3">
-        <v>474</v>
+      <c r="B47">
+        <v>413.09805131469687</v>
+      </c>
+      <c r="C47">
+        <v>108</v>
+      </c>
+      <c r="D47">
+        <v>121.1032617232088</v>
+      </c>
+      <c r="E47">
+        <v>59</v>
+      </c>
+      <c r="F47">
+        <v>47</v>
+      </c>
+      <c r="G47">
+        <v>84</v>
+      </c>
+      <c r="H47">
+        <v>73</v>
+      </c>
+      <c r="I47">
+        <v>184</v>
       </c>
       <c r="J47">
+        <v>48</v>
+      </c>
+      <c r="K47">
+        <v>28</v>
+      </c>
+      <c r="L47">
+        <v>27</v>
+      </c>
+      <c r="M47">
+        <v>40</v>
+      </c>
+      <c r="N47">
+        <v>39</v>
+      </c>
+      <c r="Q47">
         <v>184</v>
       </c>
-      <c r="K47">
-        <f t="shared" si="0"/>
+      <c r="R47">
+        <f t="shared" si="1"/>
         <v>173.82777777777778</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A48" s="3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="3">
-        <v>476</v>
+      <c r="B48">
+        <v>410.20604578674852</v>
+      </c>
+      <c r="C48">
+        <v>113.017697729161</v>
+      </c>
+      <c r="D48">
+        <v>110.01818031580051</v>
+      </c>
+      <c r="E48">
+        <v>61</v>
+      </c>
+      <c r="F48">
+        <v>52</v>
+      </c>
+      <c r="G48">
+        <v>91</v>
+      </c>
+      <c r="H48">
+        <v>86</v>
+      </c>
+      <c r="I48">
+        <v>186</v>
       </c>
       <c r="J48">
+        <v>42</v>
+      </c>
+      <c r="K48">
+        <v>29</v>
+      </c>
+      <c r="L48">
+        <v>26</v>
+      </c>
+      <c r="M48">
+        <v>44</v>
+      </c>
+      <c r="N48">
+        <v>38</v>
+      </c>
+      <c r="Q48">
         <v>186</v>
       </c>
-      <c r="K48">
-        <f t="shared" si="0"/>
+      <c r="R48">
+        <f t="shared" si="1"/>
         <v>175.71666666666664</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A49" s="3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="3">
-        <v>498</v>
+      <c r="B49">
+        <v>438.05593250177537</v>
+      </c>
+      <c r="C49">
+        <v>101.079176886241</v>
+      </c>
+      <c r="D49">
+        <v>115</v>
+      </c>
+      <c r="E49">
+        <v>59</v>
+      </c>
+      <c r="F49">
+        <v>46</v>
+      </c>
+      <c r="G49">
+        <v>83</v>
+      </c>
+      <c r="H49">
+        <v>72</v>
+      </c>
+      <c r="I49">
+        <v>196</v>
       </c>
       <c r="J49">
+        <v>50</v>
+      </c>
+      <c r="K49">
+        <v>34</v>
+      </c>
+      <c r="L49">
+        <v>28</v>
+      </c>
+      <c r="M49">
+        <v>43</v>
+      </c>
+      <c r="N49">
+        <v>41</v>
+      </c>
+      <c r="Q49">
         <v>196</v>
       </c>
-      <c r="K49">
-        <f t="shared" si="0"/>
+      <c r="R49">
+        <f t="shared" si="1"/>
         <v>185.1611111111111</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A50" s="3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="3">
-        <v>457</v>
+      <c r="B50">
+        <v>392.0114794237536</v>
+      </c>
+      <c r="C50">
+        <v>98.081598681913832</v>
+      </c>
+      <c r="D50">
+        <v>126.1427762497718</v>
+      </c>
+      <c r="E50">
+        <v>59</v>
+      </c>
+      <c r="F50">
+        <v>50</v>
+      </c>
+      <c r="G50">
+        <v>80</v>
+      </c>
+      <c r="H50">
+        <v>68</v>
+      </c>
+      <c r="I50">
+        <v>180</v>
       </c>
       <c r="J50">
+        <v>46</v>
+      </c>
+      <c r="K50">
+        <v>31</v>
+      </c>
+      <c r="L50">
+        <v>25</v>
+      </c>
+      <c r="M50">
+        <v>42</v>
+      </c>
+      <c r="N50">
+        <v>35</v>
+      </c>
+      <c r="Q50">
         <v>180</v>
       </c>
-      <c r="K50">
-        <f t="shared" si="0"/>
+      <c r="R50">
+        <f t="shared" si="1"/>
         <v>170.04999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A51" s="3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="3">
-        <v>465</v>
+      <c r="B51">
+        <v>379.10684509779031</v>
+      </c>
+      <c r="C51">
+        <v>89.274856482662571</v>
+      </c>
+      <c r="D51">
+        <v>103.1212878119741</v>
+      </c>
+      <c r="E51">
+        <v>50</v>
+      </c>
+      <c r="F51">
+        <v>44</v>
+      </c>
+      <c r="G51">
+        <v>78</v>
+      </c>
+      <c r="H51">
+        <v>76</v>
+      </c>
+      <c r="I51">
+        <v>180</v>
       </c>
       <c r="J51">
+        <v>48</v>
+      </c>
+      <c r="K51">
+        <v>26</v>
+      </c>
+      <c r="L51">
+        <v>24</v>
+      </c>
+      <c r="M51">
+        <v>38</v>
+      </c>
+      <c r="N51">
+        <v>34</v>
+      </c>
+      <c r="Q51">
         <v>180</v>
       </c>
-      <c r="K51">
-        <f t="shared" si="0"/>
+      <c r="R51">
+        <f t="shared" si="1"/>
         <v>170.04999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A52" s="3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="3">
-        <v>468</v>
+      <c r="B52">
+        <v>380.01184192074862</v>
+      </c>
+      <c r="C52">
+        <v>108</v>
+      </c>
+      <c r="D52">
+        <v>122.0163923413571</v>
+      </c>
+      <c r="E52">
+        <v>56</v>
+      </c>
+      <c r="F52">
+        <v>43</v>
+      </c>
+      <c r="G52">
+        <v>77</v>
+      </c>
+      <c r="H52">
+        <v>76</v>
+      </c>
+      <c r="I52">
+        <v>182</v>
       </c>
       <c r="J52">
+        <v>49</v>
+      </c>
+      <c r="K52">
+        <v>28</v>
+      </c>
+      <c r="L52">
+        <v>25</v>
+      </c>
+      <c r="M52">
+        <v>42</v>
+      </c>
+      <c r="N52">
+        <v>38</v>
+      </c>
+      <c r="Q52">
         <v>182</v>
       </c>
-      <c r="K52">
-        <f t="shared" si="0"/>
+      <c r="R52">
+        <f t="shared" si="1"/>
         <v>171.9388888888889</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>380.01184192074862</v>
+      </c>
+      <c r="C53">
+        <v>108</v>
+      </c>
+      <c r="D53">
+        <v>122.0163923413571</v>
+      </c>
+      <c r="E53">
+        <v>56</v>
+      </c>
+      <c r="F53">
+        <v>43</v>
+      </c>
+      <c r="G53">
+        <v>77</v>
+      </c>
+      <c r="H53">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/lengths.xlsx
+++ b/lengths.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13390\Desktop\new project\OpenCar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13587\Desktop\opencar\Fusion monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21182AD-C797-4549-AA19-108212F64B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CEB876-EC46-4874-848D-6C5CD4F2975F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -444,22 +446,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="9.125" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="15" width="8.75" customWidth="1"/>
+    <col min="1" max="4" width="9.1328125" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" customWidth="1"/>
+    <col min="7" max="7" width="8.1328125" customWidth="1"/>
+    <col min="8" max="15" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -513,7 +515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -564,7 +566,7 @@
         <v>164.38333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -615,7 +617,7 @@
         <v>173.82777777777778</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -666,7 +668,7 @@
         <v>176.66111111111113</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -717,7 +719,7 @@
         <v>175.71666666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -768,7 +770,7 @@
         <v>177.60555555555555</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -819,7 +821,7 @@
         <v>164.38333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -870,7 +872,7 @@
         <v>153.05000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -921,7 +923,7 @@
         <v>154.93888888888887</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -972,7 +974,7 @@
         <v>158.71666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1023,7 +1025,7 @@
         <v>163.4388888888889</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1074,7 +1076,7 @@
         <v>152.10555555555553</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1125,7 +1127,7 @@
         <v>169.10555555555555</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1176,7 +1178,7 @@
         <v>153.99444444444444</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1227,7 +1229,7 @@
         <v>167.21666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1278,7 +1280,7 @@
         <v>174.77222222222221</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1329,7 +1331,7 @@
         <v>160.60555555555555</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1380,7 +1382,7 @@
         <v>162.49444444444444</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1431,7 +1433,7 @@
         <v>172.88333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1482,7 +1484,7 @@
         <v>167.21666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1533,7 +1535,7 @@
         <v>176.66111111111113</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1584,7 +1586,7 @@
         <v>176.66111111111113</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1635,7 +1637,7 @@
         <v>181.38333333333333</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1686,7 +1688,7 @@
         <v>153.05000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1737,7 +1739,7 @@
         <v>154.93888888888887</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1788,7 +1790,7 @@
         <v>157.77222222222224</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1839,7 +1841,7 @@
         <v>163.4388888888889</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1890,7 +1892,7 @@
         <v>165.32777777777775</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1941,7 +1943,7 @@
         <v>181.38333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1992,7 +1994,7 @@
         <v>184.21666666666664</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2043,7 +2045,7 @@
         <v>156.82777777777775</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2094,7 +2096,7 @@
         <v>166.27222222222221</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2145,7 +2147,7 @@
         <v>171.9388888888889</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2192,11 +2194,11 @@
         <v>184</v>
       </c>
       <c r="R34">
-        <f t="shared" ref="R34:R65" si="1">(Q34-0.9)*1.7/1.8+0.9</f>
+        <f t="shared" ref="R34:R52" si="1">(Q34-0.9)*1.7/1.8+0.9</f>
         <v>173.82777777777778</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2247,7 +2249,7 @@
         <v>174.77222222222221</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2298,7 +2300,7 @@
         <v>165.32777777777775</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2349,7 +2351,7 @@
         <v>181.38333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2400,7 +2402,7 @@
         <v>186.10555555555555</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2451,7 +2453,7 @@
         <v>168.1611111111111</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2502,7 +2504,7 @@
         <v>172.88333333333333</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2553,7 +2555,7 @@
         <v>167.21666666666667</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2604,7 +2606,7 @@
         <v>168.1611111111111</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2655,7 +2657,7 @@
         <v>171.9388888888889</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2706,7 +2708,7 @@
         <v>177.60555555555555</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2757,7 +2759,7 @@
         <v>179.49444444444444</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2808,7 +2810,7 @@
         <v>177.60555555555555</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2859,7 +2861,7 @@
         <v>173.82777777777778</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2910,7 +2912,7 @@
         <v>175.71666666666664</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2961,7 +2963,7 @@
         <v>185.1611111111111</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3012,7 +3014,7 @@
         <v>170.04999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3063,7 +3065,7 @@
         <v>170.04999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3112,29 +3114,6 @@
       <c r="R52">
         <f t="shared" si="1"/>
         <v>171.9388888888889</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B53">
-        <v>380.01184192074862</v>
-      </c>
-      <c r="C53">
-        <v>108</v>
-      </c>
-      <c r="D53">
-        <v>122.0163923413571</v>
-      </c>
-      <c r="E53">
-        <v>56</v>
-      </c>
-      <c r="F53">
-        <v>43</v>
-      </c>
-      <c r="G53">
-        <v>77</v>
-      </c>
-      <c r="H53">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
